--- a/team_specific_matrix/Nicholls_B.xlsx
+++ b/team_specific_matrix/Nicholls_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2449799196787149</v>
+        <v>0.2393162393162393</v>
       </c>
       <c r="C2">
-        <v>0.461847389558233</v>
+        <v>0.4729344729344729</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01204819277108434</v>
+        <v>0.0113960113960114</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1485943775100401</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1325301204819277</v>
+        <v>0.1225071225071225</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008333333333333333</v>
+        <v>0.005780346820809248</v>
       </c>
       <c r="C3">
-        <v>0.04166666666666666</v>
+        <v>0.02890173410404624</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03333333333333333</v>
+        <v>0.02312138728323699</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6416666666666667</v>
+        <v>0.6878612716763006</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.275</v>
+        <v>0.2543352601156069</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02941176470588235</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7058823529411765</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2647058823529412</v>
+        <v>0.2653061224489796</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05673758865248227</v>
+        <v>0.05314009661835749</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01418439716312057</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02127659574468085</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3687943262411347</v>
+        <v>0.3236714975845411</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02127659574468085</v>
+        <v>0.02415458937198068</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1347517730496454</v>
+        <v>0.1400966183574879</v>
       </c>
       <c r="R6">
-        <v>0.0425531914893617</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="S6">
-        <v>0.3404255319148936</v>
+        <v>0.357487922705314</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.119205298013245</v>
+        <v>0.1196172248803828</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03311258278145696</v>
+        <v>0.03827751196172249</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03311258278145696</v>
+        <v>0.02870813397129187</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1721854304635762</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1920529801324503</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="R7">
-        <v>0.0728476821192053</v>
+        <v>0.08133971291866028</v>
       </c>
       <c r="S7">
-        <v>0.3774834437086093</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09219858156028368</v>
+        <v>0.09736842105263158</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01773049645390071</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07092198581560284</v>
+        <v>0.06315789473684211</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1276595744680851</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01418439716312057</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1879432624113475</v>
+        <v>0.1710526315789474</v>
       </c>
       <c r="R8">
-        <v>0.07446808510638298</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="S8">
-        <v>0.4148936170212766</v>
+        <v>0.4263157894736842</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0625</v>
+        <v>0.06735751295336788</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0078125</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0703125</v>
+        <v>0.07772020725388601</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.125</v>
+        <v>0.1243523316062176</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.015625</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2578125</v>
+        <v>0.2435233160621762</v>
       </c>
       <c r="R9">
-        <v>0.1328125</v>
+        <v>0.1088082901554404</v>
       </c>
       <c r="S9">
-        <v>0.328125</v>
+        <v>0.3523316062176166</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1354497354497355</v>
+        <v>0.1356707317073171</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02433862433862434</v>
+        <v>0.02591463414634146</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05714285714285714</v>
+        <v>0.06326219512195122</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1259259259259259</v>
+        <v>0.1288109756097561</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0126984126984127</v>
+        <v>0.01067073170731707</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2158730158730159</v>
+        <v>0.2126524390243902</v>
       </c>
       <c r="R10">
-        <v>0.07089947089947089</v>
+        <v>0.07088414634146341</v>
       </c>
       <c r="S10">
-        <v>0.3576719576719577</v>
+        <v>0.3521341463414634</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1052631578947368</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1052631578947368</v>
+        <v>0.108974358974359</v>
       </c>
       <c r="K11">
-        <v>0.1578947368421053</v>
+        <v>0.1602564102564103</v>
       </c>
       <c r="L11">
-        <v>0.6140350877192983</v>
+        <v>0.6121794871794872</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01754385964912281</v>
+        <v>0.01602564102564102</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7163120567375887</v>
+        <v>0.7487179487179487</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2482269503546099</v>
+        <v>0.2205128205128205</v>
       </c>
       <c r="K12">
-        <v>0.007092198581560284</v>
+        <v>0.005128205128205128</v>
       </c>
       <c r="L12">
-        <v>0.007092198581560284</v>
+        <v>0.01025641025641026</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02127659574468085</v>
+        <v>0.01538461538461539</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.717948717948718</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2307692307692308</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05128205128205128</v>
+        <v>0.04081632653061224</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02272727272727273</v>
+        <v>0.01734104046242774</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2348484848484849</v>
+        <v>0.2023121387283237</v>
       </c>
       <c r="I15">
-        <v>0.06818181818181818</v>
+        <v>0.06936416184971098</v>
       </c>
       <c r="J15">
-        <v>0.3636363636363636</v>
+        <v>0.3872832369942196</v>
       </c>
       <c r="K15">
-        <v>0.0303030303030303</v>
+        <v>0.04624277456647399</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.007575757575757576</v>
+        <v>0.005780346820809248</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.02272727272727273</v>
+        <v>0.04046242774566474</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.25</v>
+        <v>0.2312138728323699</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02255639097744361</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1954887218045113</v>
+        <v>0.185929648241206</v>
       </c>
       <c r="I16">
-        <v>0.07518796992481203</v>
+        <v>0.07537688442211055</v>
       </c>
       <c r="J16">
-        <v>0.3984962406015037</v>
+        <v>0.3768844221105528</v>
       </c>
       <c r="K16">
-        <v>0.1278195488721804</v>
+        <v>0.1206030150753769</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.007518796992481203</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="O16">
-        <v>0.02255639097744361</v>
+        <v>0.04020100502512563</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1503759398496241</v>
+        <v>0.1557788944723618</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01186943620178042</v>
+        <v>0.01318681318681319</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2017804154302671</v>
+        <v>0.189010989010989</v>
       </c>
       <c r="I17">
-        <v>0.0712166172106825</v>
+        <v>0.08351648351648351</v>
       </c>
       <c r="J17">
-        <v>0.4154302670623146</v>
+        <v>0.4131868131868132</v>
       </c>
       <c r="K17">
-        <v>0.1008902077151335</v>
+        <v>0.1098901098901099</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02967359050445104</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06528189910979229</v>
+        <v>0.05494505494505494</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1038575667655786</v>
+        <v>0.1076923076923077</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02479338842975207</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.140495867768595</v>
+        <v>0.1453488372093023</v>
       </c>
       <c r="I18">
-        <v>0.1487603305785124</v>
+        <v>0.1337209302325581</v>
       </c>
       <c r="J18">
-        <v>0.4049586776859504</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="K18">
-        <v>0.1322314049586777</v>
+        <v>0.1104651162790698</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.008264462809917356</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04958677685950413</v>
+        <v>0.05232558139534884</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09090909090909091</v>
+        <v>0.08139534883720931</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01956271576524741</v>
+        <v>0.02159468438538206</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1657077100115075</v>
+        <v>0.1669435215946844</v>
       </c>
       <c r="I19">
-        <v>0.07710011507479862</v>
+        <v>0.08803986710963455</v>
       </c>
       <c r="J19">
-        <v>0.3970080552359033</v>
+        <v>0.3961794019933555</v>
       </c>
       <c r="K19">
-        <v>0.1346375143843498</v>
+        <v>0.1312292358803987</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02761795166858458</v>
+        <v>0.02408637873754153</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06904487917146145</v>
+        <v>0.06146179401993355</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1093210586881473</v>
+        <v>0.1104651162790698</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Nicholls_B.xlsx
+++ b/team_specific_matrix/Nicholls_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2393162393162393</v>
+        <v>0.230379746835443</v>
       </c>
       <c r="C2">
-        <v>0.4729344729344729</v>
+        <v>0.4936708860759494</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0113960113960114</v>
+        <v>0.01518987341772152</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1538461538461539</v>
+        <v>0.1468354430379747</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1225071225071225</v>
+        <v>0.1139240506329114</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005780346820809248</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="C3">
-        <v>0.02890173410404624</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02312138728323699</v>
+        <v>0.03431372549019608</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6878612716763006</v>
+        <v>0.6813725490196079</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2543352601156069</v>
+        <v>0.2450980392156863</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02040816326530612</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7142857142857143</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2653061224489796</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05314009661835749</v>
+        <v>0.04977375565610859</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01449275362318841</v>
+        <v>0.01357466063348416</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02898550724637681</v>
+        <v>0.02714932126696833</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3236714975845411</v>
+        <v>0.3212669683257919</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02415458937198068</v>
+        <v>0.02262443438914027</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1400966183574879</v>
+        <v>0.1447963800904978</v>
       </c>
       <c r="R6">
-        <v>0.05797101449275362</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="S6">
-        <v>0.357487922705314</v>
+        <v>0.3619909502262443</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1196172248803828</v>
+        <v>0.1310043668122271</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03827751196172249</v>
+        <v>0.03930131004366812</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02870813397129187</v>
+        <v>0.02620087336244541</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1818181818181818</v>
+        <v>0.1790393013100437</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1818181818181818</v>
+        <v>0.1790393013100437</v>
       </c>
       <c r="R7">
-        <v>0.08133971291866028</v>
+        <v>0.07860262008733625</v>
       </c>
       <c r="S7">
-        <v>0.3684210526315789</v>
+        <v>0.3668122270742358</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09736842105263158</v>
+        <v>0.1007194244604317</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0131578947368421</v>
+        <v>0.01199040767386091</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06315789473684211</v>
+        <v>0.06235011990407674</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1368421052631579</v>
+        <v>0.1390887290167866</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0131578947368421</v>
+        <v>0.01199040767386091</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1710526315789474</v>
+        <v>0.1702637889688249</v>
       </c>
       <c r="R8">
-        <v>0.07894736842105263</v>
+        <v>0.07673860911270983</v>
       </c>
       <c r="S8">
-        <v>0.4263157894736842</v>
+        <v>0.4268585131894485</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06735751295336788</v>
+        <v>0.06550218340611354</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01036269430051814</v>
+        <v>0.01310043668122271</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07772020725388601</v>
+        <v>0.06986899563318777</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1243523316062176</v>
+        <v>0.1179039301310044</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0155440414507772</v>
+        <v>0.01746724890829694</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2435233160621762</v>
+        <v>0.2445414847161572</v>
       </c>
       <c r="R9">
-        <v>0.1088082901554404</v>
+        <v>0.1179039301310044</v>
       </c>
       <c r="S9">
-        <v>0.3523316062176166</v>
+        <v>0.3537117903930131</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1356707317073171</v>
+        <v>0.1398071625344353</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02591463414634146</v>
+        <v>0.02617079889807163</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06326219512195122</v>
+        <v>0.06129476584022039</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1288109756097561</v>
+        <v>0.1260330578512397</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01067073170731707</v>
+        <v>0.009641873278236915</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2126524390243902</v>
+        <v>0.215564738292011</v>
       </c>
       <c r="R10">
-        <v>0.07088414634146341</v>
+        <v>0.06955922865013774</v>
       </c>
       <c r="S10">
-        <v>0.3521341463414634</v>
+        <v>0.3519283746556474</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1025641025641026</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.108974358974359</v>
+        <v>0.1082621082621083</v>
       </c>
       <c r="K11">
-        <v>0.1602564102564103</v>
+        <v>0.1680911680911681</v>
       </c>
       <c r="L11">
-        <v>0.6121794871794872</v>
+        <v>0.5982905982905983</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01602564102564102</v>
+        <v>0.01424501424501425</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7487179487179487</v>
+        <v>0.7429906542056075</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2205128205128205</v>
+        <v>0.2289719626168224</v>
       </c>
       <c r="K12">
-        <v>0.005128205128205128</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="L12">
-        <v>0.01025641025641026</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01538461538461539</v>
+        <v>0.01401869158878505</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7142857142857143</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2448979591836735</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04081632653061224</v>
+        <v>0.03846153846153846</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01734104046242774</v>
+        <v>0.01578947368421053</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2023121387283237</v>
+        <v>0.2</v>
       </c>
       <c r="I15">
-        <v>0.06936416184971098</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="J15">
-        <v>0.3872832369942196</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="K15">
-        <v>0.04624277456647399</v>
+        <v>0.04736842105263158</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005780346820809248</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04046242774566474</v>
+        <v>0.03684210526315789</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2312138728323699</v>
+        <v>0.2210526315789474</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02512562814070352</v>
+        <v>0.02212389380530973</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.185929648241206</v>
+        <v>0.168141592920354</v>
       </c>
       <c r="I16">
-        <v>0.07537688442211055</v>
+        <v>0.07079646017699115</v>
       </c>
       <c r="J16">
-        <v>0.3768844221105528</v>
+        <v>0.3982300884955752</v>
       </c>
       <c r="K16">
-        <v>0.1206030150753769</v>
+        <v>0.1194690265486726</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01507537688442211</v>
+        <v>0.01327433628318584</v>
       </c>
       <c r="N16">
-        <v>0.005025125628140704</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="O16">
-        <v>0.04020100502512563</v>
+        <v>0.03539823008849557</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1557788944723618</v>
+        <v>0.168141592920354</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01318681318681319</v>
+        <v>0.01181102362204724</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.189010989010989</v>
+        <v>0.1811023622047244</v>
       </c>
       <c r="I17">
-        <v>0.08351648351648351</v>
+        <v>0.09055118110236221</v>
       </c>
       <c r="J17">
-        <v>0.4131868131868132</v>
+        <v>0.4035433070866142</v>
       </c>
       <c r="K17">
-        <v>0.1098901098901099</v>
+        <v>0.1141732283464567</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02857142857142857</v>
+        <v>0.02952755905511811</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.001968503937007874</v>
       </c>
       <c r="O17">
-        <v>0.05494505494505494</v>
+        <v>0.05905511811023622</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1076923076923077</v>
+        <v>0.1082677165354331</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02325581395348837</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1453488372093023</v>
+        <v>0.1526315789473684</v>
       </c>
       <c r="I18">
-        <v>0.1337209302325581</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="J18">
-        <v>0.4418604651162791</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="K18">
-        <v>0.1104651162790698</v>
+        <v>0.1</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01162790697674419</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05232558139534884</v>
+        <v>0.04736842105263158</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08139534883720931</v>
+        <v>0.08947368421052632</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02159468438538206</v>
+        <v>0.01957831325301205</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1669435215946844</v>
+        <v>0.1694277108433735</v>
       </c>
       <c r="I19">
-        <v>0.08803986710963455</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="J19">
-        <v>0.3961794019933555</v>
+        <v>0.3930722891566265</v>
       </c>
       <c r="K19">
-        <v>0.1312292358803987</v>
+        <v>0.1310240963855422</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02408637873754153</v>
+        <v>0.02259036144578313</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06146179401993355</v>
+        <v>0.0625</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1104651162790698</v>
+        <v>0.105421686746988</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Nicholls_B.xlsx
+++ b/team_specific_matrix/Nicholls_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.230379746835443</v>
+        <v>0.2256532066508314</v>
       </c>
       <c r="C2">
-        <v>0.4936708860759494</v>
+        <v>0.498812351543943</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01518987341772152</v>
+        <v>0.01425178147268409</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1468354430379747</v>
+        <v>0.1425178147268409</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1139240506329114</v>
+        <v>0.1187648456057007</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009803921568627451</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="C3">
-        <v>0.02941176470588235</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03431372549019608</v>
+        <v>0.03181818181818181</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6813725490196079</v>
+        <v>0.6863636363636364</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2450980392156863</v>
+        <v>0.2454545454545455</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03636363636363636</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6909090909090909</v>
+        <v>0.6724137931034483</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2727272727272727</v>
+        <v>0.2758620689655172</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04977375565610859</v>
+        <v>0.05485232067510549</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01357466063348416</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02714932126696833</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3212669683257919</v>
+        <v>0.3164556962025317</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02262443438914027</v>
+        <v>0.02109704641350211</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1447963800904978</v>
+        <v>0.1392405063291139</v>
       </c>
       <c r="R6">
-        <v>0.05882352941176471</v>
+        <v>0.05907172995780591</v>
       </c>
       <c r="S6">
-        <v>0.3619909502262443</v>
+        <v>0.3586497890295359</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1310043668122271</v>
+        <v>0.1352459016393443</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03930131004366812</v>
+        <v>0.03688524590163934</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02620087336244541</v>
+        <v>0.02868852459016394</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1790393013100437</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1790393013100437</v>
+        <v>0.1844262295081967</v>
       </c>
       <c r="R7">
-        <v>0.07860262008733625</v>
+        <v>0.0778688524590164</v>
       </c>
       <c r="S7">
-        <v>0.3668122270742358</v>
+        <v>0.3565573770491803</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1007194244604317</v>
+        <v>0.09684684684684684</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01199040767386091</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06235011990407674</v>
+        <v>0.06081081081081081</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1390887290167866</v>
+        <v>0.1373873873873874</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01199040767386091</v>
+        <v>0.01126126126126126</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1702637889688249</v>
+        <v>0.1711711711711712</v>
       </c>
       <c r="R8">
-        <v>0.07673860911270983</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="S8">
-        <v>0.4268585131894485</v>
+        <v>0.4279279279279279</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06550218340611354</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01310043668122271</v>
+        <v>0.016</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06986899563318777</v>
+        <v>0.068</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1179039301310044</v>
+        <v>0.12</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01746724890829694</v>
+        <v>0.016</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2445414847161572</v>
+        <v>0.232</v>
       </c>
       <c r="R9">
-        <v>0.1179039301310044</v>
+        <v>0.112</v>
       </c>
       <c r="S9">
-        <v>0.3537117903930131</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1398071625344353</v>
+        <v>0.1404421326397919</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02617079889807163</v>
+        <v>0.02535760728218465</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06129476584022039</v>
+        <v>0.0611183355006502</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1260330578512397</v>
+        <v>0.1287386215864759</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009641873278236915</v>
+        <v>0.00975292587776333</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.215564738292011</v>
+        <v>0.2106631989596879</v>
       </c>
       <c r="R10">
-        <v>0.06955922865013774</v>
+        <v>0.06827048114434331</v>
       </c>
       <c r="S10">
-        <v>0.3519283746556474</v>
+        <v>0.3556566970091027</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1111111111111111</v>
+        <v>0.1173333333333333</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1082621082621083</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="K11">
-        <v>0.1680911680911681</v>
+        <v>0.176</v>
       </c>
       <c r="L11">
-        <v>0.5982905982905983</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01424501424501425</v>
+        <v>0.01333333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7429906542056075</v>
+        <v>0.7488789237668162</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2289719626168224</v>
+        <v>0.2242152466367713</v>
       </c>
       <c r="K12">
-        <v>0.004672897196261682</v>
+        <v>0.004484304932735426</v>
       </c>
       <c r="L12">
-        <v>0.009345794392523364</v>
+        <v>0.008968609865470852</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01401869158878505</v>
+        <v>0.01345291479820628</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7115384615384616</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01578947368421053</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="I15">
-        <v>0.07894736842105263</v>
+        <v>0.07960199004975124</v>
       </c>
       <c r="J15">
-        <v>0.3947368421052632</v>
+        <v>0.4029850746268657</v>
       </c>
       <c r="K15">
-        <v>0.04736842105263158</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005263157894736842</v>
+        <v>0.004975124378109453</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03684210526315789</v>
+        <v>0.03482587064676617</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2210526315789474</v>
+        <v>0.2238805970149254</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02212389380530973</v>
+        <v>0.02489626556016597</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.168141592920354</v>
+        <v>0.1618257261410788</v>
       </c>
       <c r="I16">
-        <v>0.07079646017699115</v>
+        <v>0.07468879668049792</v>
       </c>
       <c r="J16">
-        <v>0.3982300884955752</v>
+        <v>0.4066390041493776</v>
       </c>
       <c r="K16">
-        <v>0.1194690265486726</v>
+        <v>0.1161825726141079</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01327433628318584</v>
+        <v>0.01244813278008299</v>
       </c>
       <c r="N16">
-        <v>0.004424778761061947</v>
+        <v>0.004149377593360996</v>
       </c>
       <c r="O16">
-        <v>0.03539823008849557</v>
+        <v>0.03319502074688797</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.168141592920354</v>
+        <v>0.1659751037344398</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01181102362204724</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1811023622047244</v>
+        <v>0.1789077212806026</v>
       </c>
       <c r="I17">
-        <v>0.09055118110236221</v>
+        <v>0.09416195856873823</v>
       </c>
       <c r="J17">
-        <v>0.4035433070866142</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="K17">
-        <v>0.1141732283464567</v>
+        <v>0.1148775894538606</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02952755905511811</v>
+        <v>0.02824858757062147</v>
       </c>
       <c r="N17">
-        <v>0.001968503937007874</v>
+        <v>0.001883239171374765</v>
       </c>
       <c r="O17">
-        <v>0.05905511811023622</v>
+        <v>0.05649717514124294</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1082677165354331</v>
+        <v>0.1073446327683616</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02631578947368421</v>
+        <v>0.025</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1526315789473684</v>
+        <v>0.155</v>
       </c>
       <c r="I18">
-        <v>0.131578947368421</v>
+        <v>0.125</v>
       </c>
       <c r="J18">
-        <v>0.4421052631578947</v>
+        <v>0.44</v>
       </c>
       <c r="K18">
         <v>0.1</v>
@@ -1475,13 +1475,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01052631578947368</v>
+        <v>0.01</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04736842105263158</v>
+        <v>0.045</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08947368421052632</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01957831325301205</v>
+        <v>0.01970443349753695</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1694277108433735</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="I19">
-        <v>0.0963855421686747</v>
+        <v>0.09992962702322308</v>
       </c>
       <c r="J19">
-        <v>0.3930722891566265</v>
+        <v>0.3856439127375088</v>
       </c>
       <c r="K19">
-        <v>0.1310240963855422</v>
+        <v>0.1308937368050669</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02259036144578313</v>
+        <v>0.02251935256861365</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.0625</v>
+        <v>0.06403940886699508</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.105421686746988</v>
+        <v>0.1048557353976073</v>
       </c>
     </row>
   </sheetData>
